--- a/ExcelFiles/YuekiTekika.xlsx
+++ b/ExcelFiles/YuekiTekika.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hihum\Dropbox\zCodeLinuxTorikumi\zRinshoExcels\YuekiTekika\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2212E141-4483-4491-82A9-49CE6B0B4CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610E2026-6C43-45EE-9906-33DFD3CB96B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,8 +138,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="180" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -228,23 +228,23 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="179" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,7 +529,7 @@
   <dimension ref="B1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I2" activeCellId="1" sqref="D2 I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5"/>
@@ -543,88 +543,84 @@
   <sheetData>
     <row r="1" spans="2:10" ht="23.25" thickBot="1"/>
     <row r="2" spans="2:10" ht="37.5" customHeight="1" thickBot="1">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="7">
-        <v>250</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="8">
-        <v>2</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="37.5" customHeight="1" thickBot="1"/>
     <row r="4" spans="2:10" ht="37.5" customHeight="1" thickBot="1">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="4">
+      <c r="C4" s="7"/>
+      <c r="D4" s="3" t="e">
         <f>(D2/I2/60*E10/60)*15</f>
-        <v>10.416666666666668</v>
-      </c>
-      <c r="E4" s="3" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="4">
+      <c r="H4" s="7"/>
+      <c r="I4" s="3" t="e">
         <f>(D2/I2/60*E10/60)*10</f>
-        <v>6.9444444444444455</v>
-      </c>
-      <c r="J4" s="3" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="37.5" customHeight="1" thickBot="1"/>
     <row r="6" spans="2:10" ht="37.5" customHeight="1" thickBot="1">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="4">
+      <c r="C6" s="7"/>
+      <c r="D6" s="3" t="e">
         <f>(D2/I2/60*E10/60)*60</f>
-        <v>41.666666666666671</v>
-      </c>
-      <c r="E6" s="3" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="4">
+      <c r="H6" s="8"/>
+      <c r="I6" s="3" t="e">
         <f>1/(D2/I2/60*E10/60)</f>
-        <v>1.4399999999999997</v>
-      </c>
-      <c r="J6" s="3" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="37.5" customHeight="1" thickBot="1"/>
     <row r="8" spans="2:10" ht="37.5" customHeight="1" thickBot="1">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="4">
+      <c r="C8" s="7"/>
+      <c r="D8" s="3" t="e">
         <f>D2/I2</f>
-        <v>125</v>
-      </c>
-      <c r="E8" s="3" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -632,7 +628,7 @@
       <c r="D10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>20</v>
       </c>
       <c r="F10" s="1" t="s">
